--- a/data/CARBURANT/2024/RAPPORT-01-2024.xlsx
+++ b/data/CARBURANT/2024/RAPPORT-01-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/SOLUTIONDEV/projet_data/streamlit_test/data/CARBURANT/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A30CE4A-5D15-314B-8554-67F405DFE25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC831D6B-5020-ED47-9F16-35658B9C2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="6600" windowWidth="21380" windowHeight="10180" xr2:uid="{14694630-C95D-074E-89CF-4B6F1BD72D95}"/>
   </bookViews>
@@ -2425,7 +2425,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84CC9569-F409-0642-851A-AD5F0530E79B}" name="Tableau1" displayName="Tableau1" ref="A1:J673" totalsRowShown="0" headerRowDxfId="43" tableBorderDxfId="42">
-  <autoFilter ref="A1:J673" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}"/>
+  <autoFilter ref="A1:J673" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AA 967 JW"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2E8B61E3-9614-D947-9020-107C12763D76}" name="N" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{127070A8-EE8A-5446-8018-1AD2BBDB04E6}" name="Date" dataDxfId="40"/>
@@ -2775,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}">
   <dimension ref="A1:J673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="E658" sqref="E658"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2824,7 +2830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1">
+    <row r="2" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A2">
         <v>1929</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1">
+    <row r="3" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A3">
         <v>1930</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1">
+    <row r="4" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A4">
         <v>1931</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1">
+    <row r="5" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A5">
         <v>1932</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1">
+    <row r="6" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A6">
         <v>1933</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1">
+    <row r="8" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A8">
         <v>1935</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1">
+    <row r="9" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A9">
         <v>1936</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1">
+    <row r="10" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A10">
         <v>1937</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1">
+    <row r="11" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A11">
         <v>1938</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1">
+    <row r="12" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A12">
         <v>1939</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1">
+    <row r="13" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A13">
         <v>1940</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1">
+    <row r="14" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A14">
         <v>1941</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1">
+    <row r="15" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A15">
         <v>1942</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" thickBot="1">
+    <row r="16" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A16">
         <v>1943</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1">
+    <row r="18" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A18">
         <v>1945</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1">
+    <row r="19" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A19">
         <v>1946</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1">
+    <row r="20" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A20">
         <v>1947</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1">
+    <row r="21" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A21">
         <v>1948</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1">
+    <row r="22" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A22">
         <v>1949</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1">
+    <row r="23" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A23">
         <v>1950</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1">
+    <row r="24" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A24">
         <v>1951</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1">
+    <row r="25" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A25">
         <v>1952</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1">
+    <row r="26" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A26">
         <v>1953</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1">
+    <row r="27" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A27">
         <v>1954</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1">
+    <row r="28" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A28">
         <v>1955</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1">
+    <row r="29" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -3720,7 +3726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1">
+    <row r="30" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1">
+    <row r="31" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A31">
         <v>1958</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1">
+    <row r="32" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A32">
         <v>1959</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1">
+    <row r="33" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A33">
         <v>1960</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1">
+    <row r="34" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A34">
         <v>1961</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1">
+    <row r="35" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A35">
         <v>1962</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1">
+    <row r="37" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A37">
         <v>1964</v>
       </c>
@@ -3976,7 +3982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1">
+    <row r="38" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A38">
         <v>1965</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1">
+    <row r="39" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A39">
         <v>1966</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1">
+    <row r="40" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A40">
         <v>1967</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1">
+    <row r="41" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A41">
         <v>1968</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17" thickBot="1">
+    <row r="42" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A42">
         <v>1969</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17" thickBot="1">
+    <row r="43" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A43">
         <v>1970</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17" thickBot="1">
+    <row r="44" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A44">
         <v>1971</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17" thickBot="1">
+    <row r="45" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A45">
         <v>1972</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17" thickBot="1">
+    <row r="46" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A46">
         <v>1973</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17" thickBot="1">
+    <row r="47" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A47">
         <v>1974</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17" thickBot="1">
+    <row r="48" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A48">
         <v>1975</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="17" thickBot="1">
+    <row r="49" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A49">
         <v>1976</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17" thickBot="1">
+    <row r="50" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A50">
         <v>1977</v>
       </c>
@@ -4392,7 +4398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17" thickBot="1">
+    <row r="51" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A51">
         <v>1978</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17" thickBot="1">
+    <row r="52" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A52">
         <v>1979</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17" thickBot="1">
+    <row r="53" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A53">
         <v>1980</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17" thickBot="1">
+    <row r="54" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A54">
         <v>1981</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17" thickBot="1">
+    <row r="55" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A55">
         <v>1982</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17" thickBot="1">
+    <row r="56" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A56">
         <v>1983</v>
       </c>
@@ -4584,7 +4590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17" thickBot="1">
+    <row r="57" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A57">
         <v>1984</v>
       </c>
@@ -4616,7 +4622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17" thickBot="1">
+    <row r="58" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A58">
         <v>1985</v>
       </c>
@@ -4648,7 +4654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17" thickBot="1">
+    <row r="59" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A59">
         <v>1986</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17" thickBot="1">
+    <row r="60" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A60">
         <v>1987</v>
       </c>
@@ -4712,7 +4718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17" thickBot="1">
+    <row r="61" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A61">
         <v>1988</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17" thickBot="1">
+    <row r="62" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A62">
         <v>1989</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17" thickBot="1">
+    <row r="63" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A63">
         <v>1990</v>
       </c>
@@ -4808,7 +4814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17" thickBot="1">
+    <row r="64" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A64">
         <v>1991</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17" thickBot="1">
+    <row r="65" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A65">
         <v>1992</v>
       </c>
@@ -4872,7 +4878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17" thickBot="1">
+    <row r="66" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A66">
         <v>1993</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="17" thickBot="1">
+    <row r="67" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A67">
         <v>1994</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="17" thickBot="1">
+    <row r="68" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A68">
         <v>1995</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17" thickBot="1">
+    <row r="69" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A69">
         <v>1996</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17" thickBot="1">
+    <row r="70" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A70">
         <v>1997</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="17" thickBot="1">
+    <row r="71" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A71">
         <v>1998</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="17" thickBot="1">
+    <row r="72" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A72">
         <v>1999</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17" thickBot="1">
+    <row r="73" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A73">
         <v>2000</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17" thickBot="1">
+    <row r="74" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A74">
         <v>2001</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17" thickBot="1">
+    <row r="75" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A75">
         <v>2002</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="17" thickBot="1">
+    <row r="76" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A76">
         <v>2003</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17" thickBot="1">
+    <row r="77" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A77">
         <v>2004</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17" thickBot="1">
+    <row r="78" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A78">
         <v>2005</v>
       </c>
@@ -5288,7 +5294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="17" thickBot="1">
+    <row r="79" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A79">
         <v>2006</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="17" thickBot="1">
+    <row r="80" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A80">
         <v>2007</v>
       </c>
@@ -5352,7 +5358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17" thickBot="1">
+    <row r="81" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A81">
         <v>2008</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17" thickBot="1">
+    <row r="82" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A82">
         <v>2009</v>
       </c>
@@ -5416,7 +5422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17" thickBot="1">
+    <row r="83" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A83">
         <v>2010</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" thickBot="1">
+    <row r="84" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A84">
         <v>2011</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17" thickBot="1">
+    <row r="85" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A85">
         <v>2012</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17" thickBot="1">
+    <row r="86" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A86">
         <v>2013</v>
       </c>
@@ -5544,7 +5550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17" thickBot="1">
+    <row r="87" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A87">
         <v>2014</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17" thickBot="1">
+    <row r="88" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A88">
         <v>2015</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17" thickBot="1">
+    <row r="89" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17" thickBot="1">
+    <row r="90" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A90">
         <v>2017</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17" thickBot="1">
+    <row r="91" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A91">
         <v>2018</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17" thickBot="1">
+    <row r="92" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A92">
         <v>2019</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17" thickBot="1">
+    <row r="93" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -5768,7 +5774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17" thickBot="1">
+    <row r="94" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17" thickBot="1">
+    <row r="95" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A95">
         <v>2022</v>
       </c>
@@ -5832,7 +5838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17" thickBot="1">
+    <row r="96" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A96">
         <v>2023</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17" thickBot="1">
+    <row r="97" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A97">
         <v>2024</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17" thickBot="1">
+    <row r="98" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A98">
         <v>2025</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17" thickBot="1">
+    <row r="99" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A99">
         <v>2026</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17" thickBot="1">
+    <row r="100" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A100">
         <v>2027</v>
       </c>
@@ -5992,7 +5998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="17" thickBot="1">
+    <row r="101" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A101">
         <v>2028</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="17" thickBot="1">
+    <row r="102" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A102">
         <v>2029</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17" thickBot="1">
+    <row r="103" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A103">
         <v>2030</v>
       </c>
@@ -6120,7 +6126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17" thickBot="1">
+    <row r="105" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A105">
         <v>2032</v>
       </c>
@@ -6152,7 +6158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="17" thickBot="1">
+    <row r="106" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A106">
         <v>2033</v>
       </c>
@@ -6184,7 +6190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17" thickBot="1">
+    <row r="107" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A107">
         <v>2034</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17" thickBot="1">
+    <row r="108" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A108">
         <v>2035</v>
       </c>
@@ -6248,7 +6254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="17" thickBot="1">
+    <row r="109" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A109">
         <v>2036</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17" thickBot="1">
+    <row r="110" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A110">
         <v>2037</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17" thickBot="1">
+    <row r="111" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A111">
         <v>2038</v>
       </c>
@@ -6344,7 +6350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="17" thickBot="1">
+    <row r="112" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A112">
         <v>2039</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="17" thickBot="1">
+    <row r="113" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A113">
         <v>2040</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="17" thickBot="1">
+    <row r="114" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A114">
         <v>2041</v>
       </c>
@@ -6440,7 +6446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="17" thickBot="1">
+    <row r="115" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A115">
         <v>2042</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="17" thickBot="1">
+    <row r="116" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A116">
         <v>2043</v>
       </c>
@@ -6504,7 +6510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="17" thickBot="1">
+    <row r="117" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A117">
         <v>2044</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="17" thickBot="1">
+    <row r="118" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A118">
         <v>2045</v>
       </c>
@@ -6568,7 +6574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="17" thickBot="1">
+    <row r="119" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A119">
         <v>2046</v>
       </c>
@@ -6632,7 +6638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="17" thickBot="1">
+    <row r="121" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A121">
         <v>2048</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="17" thickBot="1">
+    <row r="122" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A122">
         <v>2049</v>
       </c>
@@ -6696,7 +6702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="17" thickBot="1">
+    <row r="123" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A123">
         <v>2050</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="17" thickBot="1">
+    <row r="124" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A124">
         <v>2051</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="17" thickBot="1">
+    <row r="125" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A125">
         <v>2052</v>
       </c>
@@ -6792,7 +6798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="17" thickBot="1">
+    <row r="126" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A126">
         <v>2053</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="17" thickBot="1">
+    <row r="127" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A127">
         <v>2054</v>
       </c>
@@ -6856,7 +6862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="17" thickBot="1">
+    <row r="128" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A128">
         <v>2055</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="17" thickBot="1">
+    <row r="129" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A129">
         <v>2056</v>
       </c>
@@ -6920,7 +6926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="17" thickBot="1">
+    <row r="130" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A130">
         <v>2057</v>
       </c>
@@ -6952,7 +6958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="17" thickBot="1">
+    <row r="131" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A131">
         <v>2058</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="17" thickBot="1">
+    <row r="132" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A132">
         <v>2059</v>
       </c>
@@ -7016,7 +7022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="17" thickBot="1">
+    <row r="133" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A133">
         <v>2060</v>
       </c>
@@ -7048,7 +7054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="17" thickBot="1">
+    <row r="134" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A134">
         <v>2061</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="17" thickBot="1">
+    <row r="135" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A135">
         <v>2062</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="17" thickBot="1">
+    <row r="136" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A136">
         <v>2063</v>
       </c>
@@ -7176,7 +7182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="17" thickBot="1">
+    <row r="138" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A138">
         <v>2065</v>
       </c>
@@ -7208,7 +7214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="17" thickBot="1">
+    <row r="139" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A139">
         <v>2066</v>
       </c>
@@ -7240,7 +7246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="17" thickBot="1">
+    <row r="140" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A140">
         <v>2067</v>
       </c>
@@ -7272,7 +7278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="17" thickBot="1">
+    <row r="141" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A141">
         <v>2068</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="17" thickBot="1">
+    <row r="142" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A142">
         <v>2069</v>
       </c>
@@ -7336,7 +7342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="17" thickBot="1">
+    <row r="143" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A143">
         <v>2070</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="17" thickBot="1">
+    <row r="144" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A144">
         <v>2071</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="17" thickBot="1">
+    <row r="145" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A145">
         <v>2072</v>
       </c>
@@ -7432,7 +7438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="17" thickBot="1">
+    <row r="146" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A146">
         <v>2073</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="17" thickBot="1">
+    <row r="147" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A147">
         <v>2074</v>
       </c>
@@ -7496,7 +7502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="17" thickBot="1">
+    <row r="148" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A148">
         <v>2075</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="17" thickBot="1">
+    <row r="149" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A149">
         <v>2076</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="17" thickBot="1">
+    <row r="150" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A150">
         <v>2077</v>
       </c>
@@ -7592,7 +7598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="17" thickBot="1">
+    <row r="151" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A151">
         <v>2078</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="17" thickBot="1">
+    <row r="152" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A152">
         <v>2079</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="17" thickBot="1">
+    <row r="153" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A153">
         <v>2080</v>
       </c>
@@ -7688,7 +7694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="17" thickBot="1">
+    <row r="154" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A154">
         <v>2081</v>
       </c>
@@ -7720,7 +7726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="17" thickBot="1">
+    <row r="155" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A155">
         <v>2082</v>
       </c>
@@ -7752,7 +7758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="17" thickBot="1">
+    <row r="156" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A156">
         <v>2083</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="17" thickBot="1">
+    <row r="157" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A157">
         <v>2084</v>
       </c>
@@ -7816,7 +7822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="17" thickBot="1">
+    <row r="158" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A158">
         <v>2085</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="17" thickBot="1">
+    <row r="159" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A159">
         <v>2086</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="17" thickBot="1">
+    <row r="160" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A160">
         <v>2087</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="17" thickBot="1">
+    <row r="161" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A161">
         <v>2088</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="17" thickBot="1">
+    <row r="162" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A162">
         <v>2089</v>
       </c>
@@ -7976,7 +7982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="17" thickBot="1">
+    <row r="163" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A163">
         <v>2090</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="17" thickBot="1">
+    <row r="164" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A164">
         <v>2091</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="17" thickBot="1">
+    <row r="165" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A165">
         <v>2092</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="17" thickBot="1">
+    <row r="166" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A166">
         <v>2093</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="17" thickBot="1">
+    <row r="167" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A167">
         <v>2094</v>
       </c>
@@ -8136,7 +8142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="17" thickBot="1">
+    <row r="168" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A168">
         <v>2095</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="17" thickBot="1">
+    <row r="169" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A169">
         <v>2096</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="17" thickBot="1">
+    <row r="170" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A170">
         <v>2097</v>
       </c>
@@ -8264,7 +8270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="17" thickBot="1">
+    <row r="172" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A172">
         <v>2099</v>
       </c>
@@ -8296,7 +8302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="17" thickBot="1">
+    <row r="173" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A173">
         <v>2100</v>
       </c>
@@ -8328,7 +8334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="17" thickBot="1">
+    <row r="174" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A174">
         <v>2101</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="17" thickBot="1">
+    <row r="175" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A175">
         <v>2102</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="17" thickBot="1">
+    <row r="176" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A176">
         <v>2103</v>
       </c>
@@ -8424,7 +8430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="17" thickBot="1">
+    <row r="177" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A177">
         <v>2104</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="17" thickBot="1">
+    <row r="179" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A179">
         <v>2106</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="17" thickBot="1">
+    <row r="180" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A180">
         <v>2107</v>
       </c>
@@ -8552,7 +8558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="17" thickBot="1">
+    <row r="181" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A181">
         <v>2108</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="17" thickBot="1">
+    <row r="182" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A182">
         <v>2109</v>
       </c>
@@ -8616,7 +8622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="17" thickBot="1">
+    <row r="183" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A183">
         <v>2110</v>
       </c>
@@ -8648,7 +8654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="17" thickBot="1">
+    <row r="184" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A184">
         <v>2111</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="17" thickBot="1">
+    <row r="185" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A185">
         <v>2112</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="17" thickBot="1">
+    <row r="186" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A186">
         <v>2113</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="17" thickBot="1">
+    <row r="187" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A187">
         <v>2114</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="17" thickBot="1">
+    <row r="188" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A188">
         <v>2115</v>
       </c>
@@ -8808,7 +8814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="17" thickBot="1">
+    <row r="189" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A189">
         <v>2116</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="17" thickBot="1">
+    <row r="190" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A190">
         <v>2117</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="17" thickBot="1">
+    <row r="191" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A191">
         <v>2118</v>
       </c>
@@ -8904,7 +8910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="17" thickBot="1">
+    <row r="192" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A192">
         <v>2119</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="17" thickBot="1">
+    <row r="193" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A193">
         <v>2120</v>
       </c>
@@ -8968,7 +8974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="17" thickBot="1">
+    <row r="194" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A194">
         <v>2121</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="17" thickBot="1">
+    <row r="195" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A195">
         <v>2122</v>
       </c>
@@ -9032,7 +9038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="17" thickBot="1">
+    <row r="196" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A196">
         <v>2123</v>
       </c>
@@ -9064,7 +9070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="17" thickBot="1">
+    <row r="197" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A197">
         <v>2124</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="17" thickBot="1">
+    <row r="198" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A198">
         <v>2125</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="17" thickBot="1">
+    <row r="200" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A200">
         <v>2127</v>
       </c>
@@ -9192,7 +9198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="17" thickBot="1">
+    <row r="201" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A201">
         <v>2128</v>
       </c>
@@ -9224,7 +9230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="17" thickBot="1">
+    <row r="202" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A202">
         <v>2129</v>
       </c>
@@ -9256,7 +9262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="17" thickBot="1">
+    <row r="203" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A203">
         <v>2130</v>
       </c>
@@ -9288,7 +9294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="17" thickBot="1">
+    <row r="204" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A204">
         <v>2131</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="17" thickBot="1">
+    <row r="205" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A205">
         <v>2132</v>
       </c>
@@ -9352,7 +9358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="17" thickBot="1">
+    <row r="206" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A206">
         <v>2133</v>
       </c>
@@ -9384,7 +9390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="17" thickBot="1">
+    <row r="207" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A207">
         <v>2134</v>
       </c>
@@ -9416,7 +9422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="17" thickBot="1">
+    <row r="208" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A208">
         <v>2135</v>
       </c>
@@ -9448,7 +9454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="17" thickBot="1">
+    <row r="209" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A209">
         <v>2136</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="17" thickBot="1">
+    <row r="210" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A210">
         <v>2137</v>
       </c>
@@ -9512,7 +9518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="17" thickBot="1">
+    <row r="211" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A211">
         <v>2138</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="17" thickBot="1">
+    <row r="212" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A212">
         <v>2139</v>
       </c>
@@ -9576,7 +9582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="17" thickBot="1">
+    <row r="213" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A213">
         <v>2140</v>
       </c>
@@ -9608,7 +9614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="17" thickBot="1">
+    <row r="214" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A214">
         <v>2141</v>
       </c>
@@ -9640,7 +9646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="17" thickBot="1">
+    <row r="215" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A215">
         <v>2142</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="17" thickBot="1">
+    <row r="216" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A216">
         <v>2143</v>
       </c>
@@ -9704,7 +9710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="17" thickBot="1">
+    <row r="217" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A217">
         <v>2144</v>
       </c>
@@ -9736,7 +9742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="17" thickBot="1">
+    <row r="218" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A218">
         <v>2145</v>
       </c>
@@ -9800,7 +9806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="17" thickBot="1">
+    <row r="220" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A220">
         <v>2147</v>
       </c>
@@ -9832,7 +9838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="17" thickBot="1">
+    <row r="221" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A221">
         <v>2148</v>
       </c>
@@ -9864,7 +9870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="17" thickBot="1">
+    <row r="222" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A222">
         <v>2149</v>
       </c>
@@ -9896,7 +9902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="17" thickBot="1">
+    <row r="223" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A223">
         <v>2150</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="17" thickBot="1">
+    <row r="224" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A224">
         <v>2151</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="17" thickBot="1">
+    <row r="225" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A225">
         <v>2152</v>
       </c>
@@ -9992,7 +9998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="17" thickBot="1">
+    <row r="226" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A226">
         <v>2153</v>
       </c>
@@ -10024,7 +10030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="17" thickBot="1">
+    <row r="227" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A227">
         <v>2154</v>
       </c>
@@ -10056,7 +10062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="17" thickBot="1">
+    <row r="228" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A228">
         <v>2155</v>
       </c>
@@ -10088,7 +10094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="17" thickBot="1">
+    <row r="229" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A229">
         <v>2156</v>
       </c>
@@ -10152,7 +10158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="17" thickBot="1">
+    <row r="231" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A231">
         <v>2158</v>
       </c>
@@ -10184,7 +10190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="17" thickBot="1">
+    <row r="232" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A232">
         <v>2159</v>
       </c>
@@ -10216,7 +10222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="17" thickBot="1">
+    <row r="233" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A233">
         <v>2160</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="17" thickBot="1">
+    <row r="234" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A234">
         <v>2161</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="17" thickBot="1">
+    <row r="235" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A235">
         <v>2162</v>
       </c>
@@ -10312,7 +10318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="17" thickBot="1">
+    <row r="236" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A236">
         <v>2163</v>
       </c>
@@ -10344,7 +10350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="17" thickBot="1">
+    <row r="237" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A237">
         <v>2164</v>
       </c>
@@ -10376,7 +10382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="17" thickBot="1">
+    <row r="238" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A238">
         <v>2165</v>
       </c>
@@ -10408,7 +10414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="17" thickBot="1">
+    <row r="239" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A239">
         <v>2166</v>
       </c>
@@ -10440,7 +10446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="17" thickBot="1">
+    <row r="240" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A240">
         <v>2167</v>
       </c>
@@ -10472,7 +10478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="17" thickBot="1">
+    <row r="241" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A241">
         <v>2168</v>
       </c>
@@ -10504,7 +10510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="17" thickBot="1">
+    <row r="242" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A242">
         <v>2169</v>
       </c>
@@ -10536,7 +10542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="17" thickBot="1">
+    <row r="243" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A243">
         <v>2170</v>
       </c>
@@ -10568,7 +10574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="17" thickBot="1">
+    <row r="244" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A244">
         <v>2171</v>
       </c>
@@ -10632,7 +10638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="17" thickBot="1">
+    <row r="246" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A246">
         <v>2173</v>
       </c>
@@ -10664,7 +10670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="17" thickBot="1">
+    <row r="247" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A247">
         <v>2174</v>
       </c>
@@ -10696,7 +10702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="17" thickBot="1">
+    <row r="248" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A248">
         <v>2175</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="17" thickBot="1">
+    <row r="249" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A249">
         <v>2176</v>
       </c>
@@ -10760,7 +10766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="17" thickBot="1">
+    <row r="250" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A250">
         <v>2177</v>
       </c>
@@ -10792,7 +10798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="17" thickBot="1">
+    <row r="251" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A251">
         <v>2178</v>
       </c>
@@ -10824,7 +10830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="17" thickBot="1">
+    <row r="252" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A252">
         <v>2179</v>
       </c>
@@ -10856,7 +10862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="17" thickBot="1">
+    <row r="253" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A253">
         <v>2180</v>
       </c>
@@ -10888,7 +10894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="17" thickBot="1">
+    <row r="254" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A254">
         <v>2181</v>
       </c>
@@ -10920,7 +10926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="17" thickBot="1">
+    <row r="255" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A255">
         <v>2182</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="17" thickBot="1">
+    <row r="256" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A256">
         <v>2183</v>
       </c>
@@ -10984,7 +10990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="17" thickBot="1">
+    <row r="257" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A257">
         <v>2184</v>
       </c>
@@ -11016,7 +11022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="17" thickBot="1">
+    <row r="258" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A258">
         <v>2185</v>
       </c>
@@ -11048,7 +11054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="17" thickBot="1">
+    <row r="259" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A259">
         <v>2186</v>
       </c>
@@ -11080,7 +11086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="17" thickBot="1">
+    <row r="260" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A260">
         <v>2187</v>
       </c>
@@ -11112,7 +11118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="17" thickBot="1">
+    <row r="261" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A261">
         <v>2188</v>
       </c>
@@ -11144,7 +11150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="17" thickBot="1">
+    <row r="262" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A262">
         <v>2189</v>
       </c>
@@ -11176,7 +11182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="17" thickBot="1">
+    <row r="263" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A263">
         <v>2190</v>
       </c>
@@ -11208,7 +11214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="17" thickBot="1">
+    <row r="264" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A264">
         <v>2191</v>
       </c>
@@ -11240,7 +11246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="17" thickBot="1">
+    <row r="265" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A265">
         <v>2192</v>
       </c>
@@ -11272,7 +11278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="17" thickBot="1">
+    <row r="266" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A266">
         <v>2193</v>
       </c>
@@ -11304,7 +11310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="17" thickBot="1">
+    <row r="267" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A267">
         <v>2194</v>
       </c>
@@ -11368,7 +11374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="17" thickBot="1">
+    <row r="269" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A269">
         <v>2196</v>
       </c>
@@ -11400,7 +11406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="17" thickBot="1">
+    <row r="270" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A270">
         <v>2197</v>
       </c>
@@ -11432,7 +11438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="17" thickBot="1">
+    <row r="271" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A271">
         <v>2198</v>
       </c>
@@ -11464,7 +11470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="17" thickBot="1">
+    <row r="272" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A272">
         <v>2199</v>
       </c>
@@ -11496,7 +11502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="17" thickBot="1">
+    <row r="273" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A273">
         <v>2200</v>
       </c>
@@ -11528,7 +11534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="17" thickBot="1">
+    <row r="274" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A274">
         <v>2201</v>
       </c>
@@ -11560,7 +11566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="17" thickBot="1">
+    <row r="275" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A275">
         <v>2202</v>
       </c>
@@ -11592,7 +11598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="17" thickBot="1">
+    <row r="276" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A276">
         <v>2203</v>
       </c>
@@ -11624,7 +11630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="17" thickBot="1">
+    <row r="277" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A277">
         <v>2204</v>
       </c>
@@ -11656,7 +11662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="17" thickBot="1">
+    <row r="278" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A278">
         <v>2205</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="17" thickBot="1">
+    <row r="279" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A279">
         <v>2206</v>
       </c>
@@ -11720,7 +11726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="17" thickBot="1">
+    <row r="280" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A280">
         <v>2207</v>
       </c>
@@ -11752,7 +11758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="17" thickBot="1">
+    <row r="281" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A281">
         <v>2208</v>
       </c>
@@ -11784,7 +11790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="17" thickBot="1">
+    <row r="282" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A282">
         <v>2209</v>
       </c>
@@ -11816,7 +11822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="17" thickBot="1">
+    <row r="283" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A283">
         <v>2210</v>
       </c>
@@ -11848,7 +11854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="17" thickBot="1">
+    <row r="284" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A284">
         <v>2211</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="17" thickBot="1">
+    <row r="285" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A285">
         <v>2212</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="17" thickBot="1">
+    <row r="286" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A286">
         <v>2213</v>
       </c>
@@ -11944,7 +11950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="17" thickBot="1">
+    <row r="287" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A287">
         <v>2214</v>
       </c>
@@ -11976,7 +11982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="17" thickBot="1">
+    <row r="288" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A288">
         <v>2215</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="17" thickBot="1">
+    <row r="290" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A290">
         <v>2217</v>
       </c>
@@ -12072,7 +12078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="17" thickBot="1">
+    <row r="291" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A291">
         <v>2218</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="17" thickBot="1">
+    <row r="292" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A292">
         <v>2219</v>
       </c>
@@ -12136,7 +12142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="17" thickBot="1">
+    <row r="293" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A293">
         <v>2220</v>
       </c>
@@ -12168,7 +12174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="17" thickBot="1">
+    <row r="294" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A294">
         <v>2221</v>
       </c>
@@ -12200,7 +12206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="17" thickBot="1">
+    <row r="295" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A295">
         <v>2222</v>
       </c>
@@ -12232,7 +12238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="17" thickBot="1">
+    <row r="296" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A296">
         <v>2223</v>
       </c>
@@ -12264,7 +12270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="17" thickBot="1">
+    <row r="297" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A297">
         <v>2224</v>
       </c>
@@ -12296,7 +12302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="17" thickBot="1">
+    <row r="298" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A298">
         <v>2225</v>
       </c>
@@ -12328,7 +12334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="17" thickBot="1">
+    <row r="299" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A299">
         <v>2226</v>
       </c>
@@ -12360,7 +12366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="17" thickBot="1">
+    <row r="300" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A300">
         <v>2227</v>
       </c>
@@ -12392,7 +12398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="17" thickBot="1">
+    <row r="301" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A301">
         <v>2228</v>
       </c>
@@ -12424,7 +12430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="17" thickBot="1">
+    <row r="302" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A302">
         <v>2229</v>
       </c>
@@ -12456,7 +12462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="17" thickBot="1">
+    <row r="303" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A303">
         <v>2230</v>
       </c>
@@ -12488,7 +12494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="17" thickBot="1">
+    <row r="304" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A304">
         <v>2231</v>
       </c>
@@ -12520,7 +12526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="17" thickBot="1">
+    <row r="305" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A305">
         <v>2232</v>
       </c>
@@ -12552,7 +12558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="17" thickBot="1">
+    <row r="306" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A306">
         <v>2233</v>
       </c>
@@ -12584,7 +12590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="17" thickBot="1">
+    <row r="307" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A307">
         <v>2234</v>
       </c>
@@ -12616,7 +12622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="17" thickBot="1">
+    <row r="308" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A308">
         <v>2235</v>
       </c>
@@ -12648,7 +12654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="17" thickBot="1">
+    <row r="309" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A309">
         <v>2236</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="17" thickBot="1">
+    <row r="310" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A310">
         <v>2237</v>
       </c>
@@ -12712,7 +12718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="17" thickBot="1">
+    <row r="311" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A311">
         <v>2238</v>
       </c>
@@ -12744,7 +12750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="17" thickBot="1">
+    <row r="312" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A312">
         <v>2239</v>
       </c>
@@ -12776,7 +12782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="17" thickBot="1">
+    <row r="313" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A313">
         <v>2240</v>
       </c>
@@ -12808,7 +12814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="17" thickBot="1">
+    <row r="314" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A314">
         <v>2241</v>
       </c>
@@ -12840,7 +12846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="17" thickBot="1">
+    <row r="315" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A315">
         <v>2242</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="17" thickBot="1">
+    <row r="316" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A316">
         <v>2243</v>
       </c>
@@ -12904,7 +12910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="17" thickBot="1">
+    <row r="317" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A317">
         <v>2244</v>
       </c>
@@ -12936,7 +12942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="17" thickBot="1">
+    <row r="318" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A318">
         <v>2245</v>
       </c>
@@ -12968,7 +12974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="17" thickBot="1">
+    <row r="319" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A319">
         <v>2246</v>
       </c>
@@ -13000,7 +13006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="17" thickBot="1">
+    <row r="320" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A320">
         <v>2247</v>
       </c>
@@ -13032,7 +13038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="17" thickBot="1">
+    <row r="321" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A321">
         <v>2248</v>
       </c>
@@ -13064,7 +13070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="17" thickBot="1">
+    <row r="322" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A322">
         <v>2249</v>
       </c>
@@ -13096,7 +13102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="17" thickBot="1">
+    <row r="323" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A323">
         <v>2250</v>
       </c>
@@ -13128,7 +13134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="17" thickBot="1">
+    <row r="324" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A324">
         <v>2251</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="17" thickBot="1">
+    <row r="325" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A325">
         <v>2252</v>
       </c>
@@ -13192,7 +13198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="17" thickBot="1">
+    <row r="326" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A326">
         <v>2253</v>
       </c>
@@ -13224,7 +13230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="17" thickBot="1">
+    <row r="327" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A327">
         <v>2254</v>
       </c>
@@ -13256,7 +13262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="17" thickBot="1">
+    <row r="328" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A328">
         <v>2255</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="17" thickBot="1">
+    <row r="329" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A329">
         <v>2256</v>
       </c>
@@ -13320,7 +13326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="17" thickBot="1">
+    <row r="330" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A330">
         <v>2257</v>
       </c>
@@ -13352,7 +13358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="17" thickBot="1">
+    <row r="331" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A331">
         <v>2258</v>
       </c>
@@ -13384,7 +13390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="17" thickBot="1">
+    <row r="332" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A332">
         <v>2259</v>
       </c>
@@ -13416,7 +13422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="17" thickBot="1">
+    <row r="333" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A333">
         <v>2260</v>
       </c>
@@ -13448,7 +13454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="17" thickBot="1">
+    <row r="334" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A334">
         <v>2261</v>
       </c>
@@ -13480,7 +13486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="17" thickBot="1">
+    <row r="335" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A335">
         <v>2262</v>
       </c>
@@ -13512,7 +13518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="17" thickBot="1">
+    <row r="336" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A336">
         <v>2263</v>
       </c>
@@ -13544,7 +13550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="17" thickBot="1">
+    <row r="337" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A337">
         <v>2264</v>
       </c>
@@ -13576,7 +13582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="17" thickBot="1">
+    <row r="338" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A338">
         <v>2265</v>
       </c>
@@ -13608,7 +13614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="17" thickBot="1">
+    <row r="339" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A339">
         <v>2266</v>
       </c>
@@ -13640,7 +13646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="17" thickBot="1">
+    <row r="340" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A340">
         <v>2267</v>
       </c>
@@ -13672,7 +13678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="17" thickBot="1">
+    <row r="341" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A341">
         <v>2268</v>
       </c>
@@ -13704,7 +13710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="17" thickBot="1">
+    <row r="342" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A342">
         <v>2269</v>
       </c>
@@ -13736,7 +13742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="17" thickBot="1">
+    <row r="343" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A343">
         <v>2270</v>
       </c>
@@ -13768,7 +13774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="17" thickBot="1">
+    <row r="344" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A344">
         <v>2271</v>
       </c>
@@ -13800,7 +13806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="17" thickBot="1">
+    <row r="345" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A345">
         <v>2272</v>
       </c>
@@ -13832,7 +13838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="17" thickBot="1">
+    <row r="346" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A346">
         <v>2273</v>
       </c>
@@ -13864,7 +13870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="17" thickBot="1">
+    <row r="347" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A347">
         <v>2274</v>
       </c>
@@ -13896,7 +13902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="17" thickBot="1">
+    <row r="348" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A348">
         <v>2275</v>
       </c>
@@ -13928,7 +13934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="17" thickBot="1">
+    <row r="349" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A349">
         <v>2276</v>
       </c>
@@ -13960,7 +13966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="17" thickBot="1">
+    <row r="350" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A350">
         <v>2277</v>
       </c>
@@ -13992,7 +13998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="17" thickBot="1">
+    <row r="351" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A351">
         <v>2278</v>
       </c>
@@ -14024,7 +14030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="17" thickBot="1">
+    <row r="352" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A352">
         <v>2279</v>
       </c>
@@ -14056,7 +14062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="17" thickBot="1">
+    <row r="353" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A353">
         <v>2280</v>
       </c>
@@ -14088,7 +14094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="17" thickBot="1">
+    <row r="354" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A354">
         <v>2281</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="17" thickBot="1">
+    <row r="355" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A355">
         <v>2282</v>
       </c>
@@ -14152,7 +14158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="17" thickBot="1">
+    <row r="356" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A356">
         <v>2283</v>
       </c>
@@ -14184,7 +14190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="17" thickBot="1">
+    <row r="357" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A357">
         <v>2284</v>
       </c>
@@ -14216,7 +14222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="17" thickBot="1">
+    <row r="358" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A358">
         <v>2285</v>
       </c>
@@ -14248,7 +14254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="17" thickBot="1">
+    <row r="359" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A359">
         <v>2286</v>
       </c>
@@ -14280,7 +14286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="17" thickBot="1">
+    <row r="360" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A360">
         <v>2287</v>
       </c>
@@ -14312,7 +14318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="17" thickBot="1">
+    <row r="361" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A361">
         <v>2288</v>
       </c>
@@ -14344,7 +14350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="17" thickBot="1">
+    <row r="362" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A362">
         <v>2289</v>
       </c>
@@ -14376,7 +14382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="17" thickBot="1">
+    <row r="363" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A363">
         <v>2290</v>
       </c>
@@ -14408,7 +14414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="17" thickBot="1">
+    <row r="364" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A364">
         <v>2291</v>
       </c>
@@ -14440,7 +14446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="17" thickBot="1">
+    <row r="365" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A365">
         <v>2292</v>
       </c>
@@ -14472,7 +14478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="17" thickBot="1">
+    <row r="366" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A366">
         <v>2293</v>
       </c>
@@ -14504,7 +14510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="17" thickBot="1">
+    <row r="367" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A367">
         <v>2294</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="17" thickBot="1">
+    <row r="368" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A368">
         <v>2295</v>
       </c>
@@ -14568,7 +14574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="17" thickBot="1">
+    <row r="369" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A369">
         <v>2296</v>
       </c>
@@ -14600,7 +14606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="17" thickBot="1">
+    <row r="370" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A370">
         <v>2297</v>
       </c>
@@ -14632,7 +14638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="17" thickBot="1">
+    <row r="371" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A371">
         <v>2298</v>
       </c>
@@ -14664,7 +14670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="17" thickBot="1">
+    <row r="372" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A372">
         <v>2299</v>
       </c>
@@ -14696,7 +14702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="17" thickBot="1">
+    <row r="373" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A373">
         <v>2300</v>
       </c>
@@ -14728,7 +14734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="17" thickBot="1">
+    <row r="374" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A374">
         <v>2301</v>
       </c>
@@ -14760,7 +14766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="17" thickBot="1">
+    <row r="375" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A375">
         <v>2302</v>
       </c>
@@ -14792,7 +14798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="17" thickBot="1">
+    <row r="376" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A376">
         <v>2303</v>
       </c>
@@ -14824,7 +14830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="17" thickBot="1">
+    <row r="377" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A377">
         <v>2304</v>
       </c>
@@ -14856,7 +14862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="17" thickBot="1">
+    <row r="378" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A378">
         <v>2305</v>
       </c>
@@ -14888,7 +14894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="17" thickBot="1">
+    <row r="379" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A379">
         <v>2306</v>
       </c>
@@ -14920,7 +14926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="17" thickBot="1">
+    <row r="380" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A380">
         <v>2307</v>
       </c>
@@ -14952,7 +14958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="17" thickBot="1">
+    <row r="381" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A381">
         <v>2308</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="17" thickBot="1">
+    <row r="382" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A382">
         <v>2309</v>
       </c>
@@ -15016,7 +15022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="17" thickBot="1">
+    <row r="383" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A383">
         <v>2310</v>
       </c>
@@ -15048,7 +15054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="17" thickBot="1">
+    <row r="384" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A384">
         <v>2311</v>
       </c>
@@ -15080,7 +15086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="17" thickBot="1">
+    <row r="385" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A385">
         <v>2312</v>
       </c>
@@ -15112,7 +15118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="17" thickBot="1">
+    <row r="386" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A386">
         <v>2313</v>
       </c>
@@ -15144,7 +15150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="17" thickBot="1">
+    <row r="387" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A387">
         <v>2314</v>
       </c>
@@ -15176,7 +15182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="17" thickBot="1">
+    <row r="388" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A388">
         <v>2315</v>
       </c>
@@ -15208,7 +15214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="17" thickBot="1">
+    <row r="389" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A389">
         <v>2316</v>
       </c>
@@ -15240,7 +15246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="17" thickBot="1">
+    <row r="390" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A390">
         <v>2317</v>
       </c>
@@ -15272,7 +15278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="17" thickBot="1">
+    <row r="391" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A391">
         <v>2318</v>
       </c>
@@ -15304,7 +15310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="17" thickBot="1">
+    <row r="392" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A392">
         <v>2319</v>
       </c>
@@ -15336,7 +15342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="17" thickBot="1">
+    <row r="393" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A393">
         <v>2320</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="17" thickBot="1">
+    <row r="394" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A394">
         <v>2321</v>
       </c>
@@ -15400,7 +15406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="17" thickBot="1">
+    <row r="395" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A395">
         <v>2322</v>
       </c>
@@ -15432,7 +15438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="17" thickBot="1">
+    <row r="396" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A396">
         <v>2323</v>
       </c>
@@ -15464,7 +15470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="17" thickBot="1">
+    <row r="397" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A397">
         <v>2324</v>
       </c>
@@ -15496,7 +15502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="17" thickBot="1">
+    <row r="398" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A398">
         <v>2325</v>
       </c>
@@ -15528,7 +15534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="17" thickBot="1">
+    <row r="399" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A399">
         <v>2326</v>
       </c>
@@ -15560,7 +15566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="17" thickBot="1">
+    <row r="400" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A400">
         <v>2327</v>
       </c>
@@ -15592,7 +15598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="17" thickBot="1">
+    <row r="401" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A401">
         <v>2328</v>
       </c>
@@ -15624,7 +15630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="17" thickBot="1">
+    <row r="402" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A402">
         <v>2329</v>
       </c>
@@ -15656,7 +15662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="17" thickBot="1">
+    <row r="403" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A403">
         <v>2330</v>
       </c>
@@ -15688,7 +15694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="17" thickBot="1">
+    <row r="404" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A404">
         <v>2331</v>
       </c>
@@ -15720,7 +15726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="17" thickBot="1">
+    <row r="405" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A405">
         <v>2332</v>
       </c>
@@ -15752,7 +15758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="17" thickBot="1">
+    <row r="406" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A406">
         <v>2333</v>
       </c>
@@ -15784,7 +15790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="17" thickBot="1">
+    <row r="407" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A407">
         <v>2334</v>
       </c>
@@ -15816,7 +15822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="17" thickBot="1">
+    <row r="408" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A408">
         <v>2335</v>
       </c>
@@ -15848,7 +15854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="17" thickBot="1">
+    <row r="409" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A409">
         <v>2336</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="17" thickBot="1">
+    <row r="410" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A410">
         <v>2337</v>
       </c>
@@ -15912,7 +15918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="17" thickBot="1">
+    <row r="411" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A411">
         <v>2338</v>
       </c>
@@ -15944,7 +15950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="17" thickBot="1">
+    <row r="412" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A412">
         <v>2339</v>
       </c>
@@ -15976,7 +15982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="17" thickBot="1">
+    <row r="413" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A413">
         <v>2340</v>
       </c>
@@ -16008,7 +16014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="17" thickBot="1">
+    <row r="414" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A414">
         <v>2341</v>
       </c>
@@ -16040,7 +16046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="17" thickBot="1">
+    <row r="415" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A415">
         <v>2342</v>
       </c>
@@ -16072,7 +16078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="17" thickBot="1">
+    <row r="416" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A416">
         <v>2343</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="17" thickBot="1">
+    <row r="417" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A417">
         <v>2344</v>
       </c>
@@ -16136,7 +16142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="17" thickBot="1">
+    <row r="418" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A418">
         <v>2345</v>
       </c>
@@ -16168,7 +16174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="17" thickBot="1">
+    <row r="419" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A419">
         <v>2346</v>
       </c>
@@ -16200,7 +16206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="17" thickBot="1">
+    <row r="420" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A420">
         <v>2347</v>
       </c>
@@ -16232,7 +16238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="17" thickBot="1">
+    <row r="421" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A421">
         <v>2348</v>
       </c>
@@ -16264,7 +16270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="17" thickBot="1">
+    <row r="422" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A422">
         <v>2349</v>
       </c>
@@ -16296,7 +16302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="17" thickBot="1">
+    <row r="423" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A423">
         <v>2350</v>
       </c>
@@ -16328,7 +16334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="17" thickBot="1">
+    <row r="424" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A424">
         <v>2351</v>
       </c>
@@ -16360,7 +16366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="17" thickBot="1">
+    <row r="425" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A425">
         <v>2352</v>
       </c>
@@ -16392,7 +16398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="17" thickBot="1">
+    <row r="426" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A426">
         <v>2353</v>
       </c>
@@ -16424,7 +16430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="17" thickBot="1">
+    <row r="427" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A427">
         <v>2354</v>
       </c>
@@ -16456,7 +16462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="17" thickBot="1">
+    <row r="428" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A428">
         <v>2355</v>
       </c>
@@ -16488,7 +16494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="17" thickBot="1">
+    <row r="429" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A429">
         <v>2356</v>
       </c>
@@ -16520,7 +16526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="17" thickBot="1">
+    <row r="430" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A430">
         <v>2357</v>
       </c>
@@ -16552,7 +16558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="17" thickBot="1">
+    <row r="431" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A431">
         <v>2358</v>
       </c>
@@ -16584,7 +16590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="17" thickBot="1">
+    <row r="432" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A432">
         <v>2359</v>
       </c>
@@ -16616,7 +16622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="17" thickBot="1">
+    <row r="433" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A433">
         <v>2360</v>
       </c>
@@ -16648,7 +16654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="17" thickBot="1">
+    <row r="434" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A434">
         <v>2361</v>
       </c>
@@ -16680,7 +16686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="17" thickBot="1">
+    <row r="435" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A435">
         <v>2362</v>
       </c>
@@ -16712,7 +16718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="17" thickBot="1">
+    <row r="436" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A436">
         <v>2363</v>
       </c>
@@ -16744,7 +16750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="17" thickBot="1">
+    <row r="437" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A437">
         <v>2364</v>
       </c>
@@ -16776,7 +16782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="17" thickBot="1">
+    <row r="438" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A438">
         <v>2365</v>
       </c>
@@ -16808,7 +16814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="17" thickBot="1">
+    <row r="439" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A439">
         <v>2366</v>
       </c>
@@ -16840,7 +16846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="17" thickBot="1">
+    <row r="440" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A440">
         <v>2367</v>
       </c>
@@ -16872,7 +16878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="17" thickBot="1">
+    <row r="441" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A441">
         <v>2368</v>
       </c>
@@ -16904,7 +16910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="17" thickBot="1">
+    <row r="442" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A442">
         <v>2369</v>
       </c>
@@ -16936,7 +16942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="17" thickBot="1">
+    <row r="443" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A443">
         <v>2370</v>
       </c>
@@ -16968,7 +16974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="17" thickBot="1">
+    <row r="444" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A444">
         <v>2371</v>
       </c>
@@ -17000,7 +17006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="17" thickBot="1">
+    <row r="445" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A445">
         <v>2372</v>
       </c>
@@ -17032,7 +17038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="17" thickBot="1">
+    <row r="446" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A446">
         <v>2373</v>
       </c>
@@ -17064,7 +17070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="17" thickBot="1">
+    <row r="447" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A447">
         <v>2374</v>
       </c>
@@ -17096,7 +17102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="17" thickBot="1">
+    <row r="448" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A448">
         <v>2375</v>
       </c>
@@ -17128,7 +17134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="17" thickBot="1">
+    <row r="449" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A449">
         <v>2376</v>
       </c>
@@ -17160,7 +17166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="17" thickBot="1">
+    <row r="450" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A450">
         <v>2377</v>
       </c>
@@ -17192,7 +17198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="17" thickBot="1">
+    <row r="451" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A451">
         <v>2378</v>
       </c>
@@ -17224,7 +17230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="17" thickBot="1">
+    <row r="452" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A452">
         <v>2379</v>
       </c>
@@ -17256,7 +17262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="17" thickBot="1">
+    <row r="453" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A453">
         <v>2380</v>
       </c>
@@ -17288,7 +17294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="17" thickBot="1">
+    <row r="454" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A454">
         <v>2381</v>
       </c>
@@ -17320,7 +17326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="17" thickBot="1">
+    <row r="455" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A455">
         <v>2382</v>
       </c>
@@ -17352,7 +17358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="17" thickBot="1">
+    <row r="456" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A456">
         <v>2383</v>
       </c>
@@ -17384,7 +17390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="17" thickBot="1">
+    <row r="457" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A457">
         <v>2384</v>
       </c>
@@ -17416,7 +17422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="17" thickBot="1">
+    <row r="458" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A458">
         <v>2385</v>
       </c>
@@ -17448,7 +17454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="17" thickBot="1">
+    <row r="459" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A459">
         <v>2386</v>
       </c>
@@ -17480,7 +17486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="17" thickBot="1">
+    <row r="460" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A460">
         <v>2387</v>
       </c>
@@ -17512,7 +17518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="17" thickBot="1">
+    <row r="461" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A461">
         <v>2388</v>
       </c>
@@ -17544,7 +17550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="17" thickBot="1">
+    <row r="462" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A462">
         <v>2389</v>
       </c>
@@ -17576,7 +17582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="17" thickBot="1">
+    <row r="463" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A463">
         <v>2390</v>
       </c>
@@ -17608,7 +17614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="17" thickBot="1">
+    <row r="464" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A464">
         <v>2391</v>
       </c>
@@ -17640,7 +17646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="17" thickBot="1">
+    <row r="465" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A465">
         <v>2392</v>
       </c>
@@ -17672,7 +17678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="17" thickBot="1">
+    <row r="466" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A466">
         <v>2393</v>
       </c>
@@ -17704,7 +17710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="17" thickBot="1">
+    <row r="467" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A467">
         <v>2394</v>
       </c>
@@ -17736,7 +17742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="17" thickBot="1">
+    <row r="468" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A468">
         <v>2395</v>
       </c>
@@ -17768,7 +17774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="17" thickBot="1">
+    <row r="469" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A469">
         <v>2396</v>
       </c>
@@ -17800,7 +17806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="17" thickBot="1">
+    <row r="470" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A470">
         <v>2397</v>
       </c>
@@ -17832,7 +17838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="17" thickBot="1">
+    <row r="471" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A471">
         <v>2398</v>
       </c>
@@ -17864,7 +17870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="17" thickBot="1">
+    <row r="472" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A472">
         <v>2399</v>
       </c>
@@ -17896,7 +17902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="17" thickBot="1">
+    <row r="473" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A473">
         <v>2400</v>
       </c>
@@ -17928,7 +17934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="17" thickBot="1">
+    <row r="474" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A474">
         <v>2401</v>
       </c>
@@ -17960,7 +17966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="17" thickBot="1">
+    <row r="475" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A475">
         <v>2402</v>
       </c>
@@ -17992,7 +17998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="17" thickBot="1">
+    <row r="476" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A476">
         <v>2403</v>
       </c>
@@ -18024,7 +18030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="17" thickBot="1">
+    <row r="477" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A477">
         <v>2404</v>
       </c>
@@ -18056,7 +18062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="17" thickBot="1">
+    <row r="478" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A478">
         <v>2405</v>
       </c>
@@ -18088,7 +18094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="17" thickBot="1">
+    <row r="479" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A479">
         <v>2406</v>
       </c>
@@ -18120,7 +18126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="17" thickBot="1">
+    <row r="480" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A480">
         <v>2407</v>
       </c>
@@ -18152,7 +18158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="17" thickBot="1">
+    <row r="481" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A481">
         <v>2408</v>
       </c>
@@ -18184,7 +18190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="17" thickBot="1">
+    <row r="482" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A482">
         <v>2409</v>
       </c>
@@ -18216,7 +18222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="17" thickBot="1">
+    <row r="483" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A483">
         <v>2410</v>
       </c>
@@ -18248,7 +18254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="17" thickBot="1">
+    <row r="484" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A484">
         <v>2411</v>
       </c>
@@ -18280,7 +18286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="17" thickBot="1">
+    <row r="485" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A485">
         <v>2412</v>
       </c>
@@ -18312,7 +18318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="17" thickBot="1">
+    <row r="486" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A486">
         <v>2413</v>
       </c>
@@ -18344,7 +18350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="17" thickBot="1">
+    <row r="487" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A487">
         <v>2414</v>
       </c>
@@ -18376,7 +18382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="17" thickBot="1">
+    <row r="488" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A488">
         <v>2415</v>
       </c>
@@ -18408,7 +18414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="17" thickBot="1">
+    <row r="489" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A489">
         <v>2416</v>
       </c>
@@ -18440,7 +18446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="17" thickBot="1">
+    <row r="490" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A490">
         <v>2417</v>
       </c>
@@ -18472,7 +18478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="17" thickBot="1">
+    <row r="491" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A491">
         <v>2418</v>
       </c>
@@ -18504,7 +18510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="17" thickBot="1">
+    <row r="492" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A492">
         <v>2419</v>
       </c>
@@ -18536,7 +18542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="17" thickBot="1">
+    <row r="493" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A493">
         <v>2420</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="17" thickBot="1">
+    <row r="494" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A494">
         <v>2421</v>
       </c>
@@ -18600,7 +18606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="17" thickBot="1">
+    <row r="495" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A495">
         <v>2422</v>
       </c>
@@ -18632,7 +18638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="17" thickBot="1">
+    <row r="496" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A496">
         <v>2423</v>
       </c>
@@ -18664,7 +18670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="17" thickBot="1">
+    <row r="497" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A497">
         <v>2424</v>
       </c>
@@ -18696,7 +18702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="17" thickBot="1">
+    <row r="498" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A498">
         <v>2425</v>
       </c>
@@ -18728,7 +18734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="17" thickBot="1">
+    <row r="499" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A499">
         <v>2426</v>
       </c>
@@ -18760,7 +18766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="17" thickBot="1">
+    <row r="500" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A500">
         <v>2427</v>
       </c>
@@ -18792,7 +18798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="17" thickBot="1">
+    <row r="501" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A501">
         <v>2428</v>
       </c>
@@ -18824,7 +18830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="17" thickBot="1">
+    <row r="502" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A502">
         <v>2429</v>
       </c>
@@ -18856,7 +18862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="17" thickBot="1">
+    <row r="503" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A503">
         <v>2430</v>
       </c>
@@ -18888,7 +18894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="17" thickBot="1">
+    <row r="504" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A504">
         <v>2431</v>
       </c>
@@ -18920,7 +18926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="17" thickBot="1">
+    <row r="505" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A505">
         <v>2432</v>
       </c>
@@ -18952,7 +18958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="17" thickBot="1">
+    <row r="506" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A506">
         <v>2433</v>
       </c>
@@ -18984,7 +18990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="17" thickBot="1">
+    <row r="507" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A507">
         <v>2434</v>
       </c>
@@ -19016,7 +19022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="17" thickBot="1">
+    <row r="508" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A508">
         <v>2435</v>
       </c>
@@ -19048,7 +19054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="17" thickBot="1">
+    <row r="509" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A509">
         <v>2436</v>
       </c>
@@ -19080,7 +19086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="17" thickBot="1">
+    <row r="510" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A510">
         <v>2437</v>
       </c>
@@ -19112,7 +19118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="17" thickBot="1">
+    <row r="511" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A511">
         <v>2438</v>
       </c>
@@ -19144,7 +19150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="17" thickBot="1">
+    <row r="512" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A512">
         <v>2439</v>
       </c>
@@ -19176,7 +19182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="17" thickBot="1">
+    <row r="513" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A513">
         <v>2440</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="17" thickBot="1">
+    <row r="514" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A514">
         <v>2441</v>
       </c>
@@ -19240,7 +19246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="17" thickBot="1">
+    <row r="515" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A515">
         <v>2442</v>
       </c>
@@ -19272,7 +19278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="17" thickBot="1">
+    <row r="516" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A516">
         <v>2443</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="17" thickBot="1">
+    <row r="517" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A517">
         <v>2444</v>
       </c>
@@ -19336,7 +19342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="17" thickBot="1">
+    <row r="518" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A518">
         <v>2445</v>
       </c>
@@ -19368,7 +19374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="17" thickBot="1">
+    <row r="519" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A519">
         <v>2446</v>
       </c>
@@ -19400,7 +19406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="17" thickBot="1">
+    <row r="520" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A520">
         <v>2447</v>
       </c>
@@ -19432,7 +19438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="17" thickBot="1">
+    <row r="521" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A521">
         <v>2448</v>
       </c>
@@ -19464,7 +19470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="17" thickBot="1">
+    <row r="522" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A522">
         <v>2449</v>
       </c>
@@ -19496,7 +19502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="17" thickBot="1">
+    <row r="523" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A523">
         <v>2450</v>
       </c>
@@ -19528,7 +19534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="17" thickBot="1">
+    <row r="524" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A524">
         <v>2451</v>
       </c>
@@ -19560,7 +19566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="17" thickBot="1">
+    <row r="525" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A525">
         <v>2452</v>
       </c>
@@ -19592,7 +19598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="17" thickBot="1">
+    <row r="526" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A526">
         <v>2453</v>
       </c>
@@ -19624,7 +19630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="17" thickBot="1">
+    <row r="527" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A527">
         <v>2454</v>
       </c>
@@ -19656,7 +19662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="17" thickBot="1">
+    <row r="528" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A528">
         <v>2455</v>
       </c>
@@ -19688,7 +19694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="17" thickBot="1">
+    <row r="529" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A529">
         <v>2456</v>
       </c>
@@ -19720,7 +19726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="17" thickBot="1">
+    <row r="530" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A530">
         <v>2457</v>
       </c>
@@ -19752,7 +19758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="17" thickBot="1">
+    <row r="531" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A531">
         <v>2458</v>
       </c>
@@ -19784,7 +19790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="17" thickBot="1">
+    <row r="532" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A532">
         <v>2459</v>
       </c>
@@ -19816,7 +19822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="17" thickBot="1">
+    <row r="533" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A533">
         <v>2460</v>
       </c>
@@ -19848,7 +19854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="17" thickBot="1">
+    <row r="534" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A534">
         <v>2461</v>
       </c>
@@ -19880,7 +19886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="17" thickBot="1">
+    <row r="535" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A535">
         <v>2462</v>
       </c>
@@ -19912,7 +19918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="17" thickBot="1">
+    <row r="536" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A536">
         <v>2463</v>
       </c>
@@ -19944,7 +19950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="17" thickBot="1">
+    <row r="537" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A537">
         <v>2464</v>
       </c>
@@ -19976,7 +19982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="17" thickBot="1">
+    <row r="538" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A538">
         <v>2465</v>
       </c>
@@ -20008,7 +20014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="17" thickBot="1">
+    <row r="539" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A539">
         <v>2466</v>
       </c>
@@ -20040,7 +20046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="17" thickBot="1">
+    <row r="540" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A540">
         <v>2467</v>
       </c>
@@ -20072,7 +20078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="17" thickBot="1">
+    <row r="541" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A541">
         <v>2468</v>
       </c>
@@ -20104,7 +20110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="17" thickBot="1">
+    <row r="542" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A542">
         <v>2469</v>
       </c>
@@ -20136,7 +20142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="17" thickBot="1">
+    <row r="543" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A543">
         <v>2470</v>
       </c>
@@ -20168,7 +20174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="17" thickBot="1">
+    <row r="544" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A544">
         <v>2471</v>
       </c>
@@ -20200,7 +20206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="17" thickBot="1">
+    <row r="545" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A545">
         <v>2472</v>
       </c>
@@ -20232,7 +20238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="17" thickBot="1">
+    <row r="546" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A546">
         <v>2473</v>
       </c>
@@ -20264,7 +20270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="17" thickBot="1">
+    <row r="547" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A547">
         <v>2474</v>
       </c>
@@ -20328,7 +20334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="17" thickBot="1">
+    <row r="549" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A549">
         <v>2476</v>
       </c>
@@ -20360,7 +20366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="17" thickBot="1">
+    <row r="550" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A550">
         <v>2477</v>
       </c>
@@ -20392,7 +20398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="17" thickBot="1">
+    <row r="551" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A551">
         <v>2478</v>
       </c>
@@ -20424,7 +20430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="17" thickBot="1">
+    <row r="552" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A552">
         <v>2479</v>
       </c>
@@ -20456,7 +20462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="17" thickBot="1">
+    <row r="553" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A553">
         <v>2480</v>
       </c>
@@ -20488,7 +20494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="17" thickBot="1">
+    <row r="554" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A554">
         <v>2481</v>
       </c>
@@ -20520,7 +20526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="17" thickBot="1">
+    <row r="555" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A555">
         <v>2482</v>
       </c>
@@ -20552,7 +20558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="17" thickBot="1">
+    <row r="556" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A556">
         <v>2483</v>
       </c>
@@ -20584,7 +20590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="17" thickBot="1">
+    <row r="557" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A557">
         <v>2484</v>
       </c>
@@ -20648,7 +20654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="17" thickBot="1">
+    <row r="559" spans="1:10" ht="17" hidden="1" thickBot="1">
       <c r="A559">
         <v>2486</v>
       </c>
@@ -20680,7 +20686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="17" thickBot="1">
+    <row r="560" spans="1:10">
       <c r="A560">
         <v>2487</v>
       </c>
@@ -20712,7 +20718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="17" thickBot="1">
+    <row r="561" spans="1:10" hidden="1">
       <c r="A561">
         <v>2488</v>
       </c>
@@ -20744,7 +20750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="17" thickBot="1">
+    <row r="562" spans="1:10" hidden="1">
       <c r="A562">
         <v>2489</v>
       </c>
@@ -20776,7 +20782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="17" thickBot="1">
+    <row r="563" spans="1:10" hidden="1">
       <c r="A563">
         <v>2490</v>
       </c>
@@ -20808,7 +20814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="17" thickBot="1">
+    <row r="564" spans="1:10" hidden="1">
       <c r="A564">
         <v>2491</v>
       </c>
@@ -20840,7 +20846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="17" thickBot="1">
+    <row r="565" spans="1:10" hidden="1">
       <c r="A565">
         <v>2492</v>
       </c>
@@ -20872,7 +20878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="17" thickBot="1">
+    <row r="566" spans="1:10" hidden="1">
       <c r="A566">
         <v>2493</v>
       </c>
@@ -20904,7 +20910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="17" thickBot="1">
+    <row r="567" spans="1:10" hidden="1">
       <c r="A567">
         <v>2494</v>
       </c>
@@ -20936,7 +20942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="17" thickBot="1">
+    <row r="568" spans="1:10" hidden="1">
       <c r="A568">
         <v>2495</v>
       </c>
@@ -20968,7 +20974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="17" thickBot="1">
+    <row r="569" spans="1:10" hidden="1">
       <c r="A569">
         <v>2496</v>
       </c>
@@ -21000,7 +21006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="17" thickBot="1">
+    <row r="570" spans="1:10" hidden="1">
       <c r="A570">
         <v>2497</v>
       </c>
@@ -21032,7 +21038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="17" thickBot="1">
+    <row r="571" spans="1:10" hidden="1">
       <c r="A571">
         <v>2498</v>
       </c>
@@ -21064,7 +21070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="17" thickBot="1">
+    <row r="572" spans="1:10" hidden="1">
       <c r="A572">
         <v>2499</v>
       </c>
@@ -21096,7 +21102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="17" thickBot="1">
+    <row r="573" spans="1:10" hidden="1">
       <c r="A573">
         <v>2500</v>
       </c>
@@ -21128,7 +21134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="17" thickBot="1">
+    <row r="574" spans="1:10" hidden="1">
       <c r="A574">
         <v>2501</v>
       </c>
@@ -21160,7 +21166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="17" thickBot="1">
+    <row r="575" spans="1:10" hidden="1">
       <c r="A575">
         <v>2502</v>
       </c>
@@ -21192,7 +21198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="17" thickBot="1">
+    <row r="576" spans="1:10" hidden="1">
       <c r="A576">
         <v>2503</v>
       </c>
@@ -21224,7 +21230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="17" thickBot="1">
+    <row r="577" spans="1:10" hidden="1">
       <c r="A577">
         <v>2504</v>
       </c>
@@ -21256,7 +21262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="17" thickBot="1">
+    <row r="578" spans="1:10" hidden="1">
       <c r="A578">
         <v>2505</v>
       </c>
@@ -21288,7 +21294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="17" thickBot="1">
+    <row r="579" spans="1:10" hidden="1">
       <c r="A579">
         <v>2506</v>
       </c>
@@ -21320,7 +21326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="17" thickBot="1">
+    <row r="580" spans="1:10" hidden="1">
       <c r="A580">
         <v>2507</v>
       </c>
@@ -21352,7 +21358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="17" thickBot="1">
+    <row r="581" spans="1:10" hidden="1">
       <c r="A581">
         <v>2508</v>
       </c>
@@ -21384,7 +21390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="17" thickBot="1">
+    <row r="582" spans="1:10" hidden="1">
       <c r="A582">
         <v>2509</v>
       </c>
@@ -21416,7 +21422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="17" thickBot="1">
+    <row r="583" spans="1:10" hidden="1">
       <c r="A583">
         <v>2510</v>
       </c>
@@ -21448,7 +21454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="17" thickBot="1">
+    <row r="584" spans="1:10" hidden="1">
       <c r="A584">
         <v>2511</v>
       </c>
@@ -21480,7 +21486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="17" thickBot="1">
+    <row r="585" spans="1:10" hidden="1">
       <c r="A585">
         <v>2512</v>
       </c>
@@ -21512,7 +21518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="17" thickBot="1">
+    <row r="586" spans="1:10" hidden="1">
       <c r="A586">
         <v>2513</v>
       </c>
@@ -21544,7 +21550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="17" thickBot="1">
+    <row r="587" spans="1:10" hidden="1">
       <c r="A587">
         <v>2514</v>
       </c>
@@ -21576,7 +21582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="17" thickBot="1">
+    <row r="588" spans="1:10" hidden="1">
       <c r="A588">
         <v>2515</v>
       </c>
@@ -21608,7 +21614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="17" thickBot="1">
+    <row r="589" spans="1:10" hidden="1">
       <c r="A589">
         <v>2516</v>
       </c>
@@ -21640,7 +21646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="17" thickBot="1">
+    <row r="590" spans="1:10" hidden="1">
       <c r="A590">
         <v>2517</v>
       </c>
@@ -21672,7 +21678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="17" thickBot="1">
+    <row r="591" spans="1:10" hidden="1">
       <c r="A591">
         <v>2518</v>
       </c>
@@ -21704,7 +21710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="17" thickBot="1">
+    <row r="592" spans="1:10" hidden="1">
       <c r="A592">
         <v>2519</v>
       </c>
@@ -21736,7 +21742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="17" thickBot="1">
+    <row r="593" spans="1:10" hidden="1">
       <c r="A593">
         <v>2520</v>
       </c>
@@ -21768,7 +21774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="17" thickBot="1">
+    <row r="594" spans="1:10" hidden="1">
       <c r="A594">
         <v>2521</v>
       </c>
@@ -21800,7 +21806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="17" thickBot="1">
+    <row r="595" spans="1:10" hidden="1">
       <c r="A595">
         <v>2522</v>
       </c>
@@ -21832,7 +21838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="17" thickBot="1">
+    <row r="596" spans="1:10" hidden="1">
       <c r="A596">
         <v>2523</v>
       </c>
@@ -21864,7 +21870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="17" thickBot="1">
+    <row r="597" spans="1:10" hidden="1">
       <c r="A597">
         <v>2524</v>
       </c>
@@ -21896,7 +21902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="17" thickBot="1">
+    <row r="598" spans="1:10" hidden="1">
       <c r="A598">
         <v>2525</v>
       </c>
@@ -21928,7 +21934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="17" thickBot="1">
+    <row r="599" spans="1:10" hidden="1">
       <c r="A599">
         <v>2526</v>
       </c>
@@ -21960,7 +21966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="17" thickBot="1">
+    <row r="600" spans="1:10" hidden="1">
       <c r="A600">
         <v>2527</v>
       </c>
@@ -21992,7 +21998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="17" thickBot="1">
+    <row r="601" spans="1:10" hidden="1">
       <c r="A601">
         <v>2528</v>
       </c>
@@ -22024,7 +22030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="17" thickBot="1">
+    <row r="602" spans="1:10" hidden="1">
       <c r="A602">
         <v>2529</v>
       </c>
@@ -22056,7 +22062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="17" thickBot="1">
+    <row r="603" spans="1:10" hidden="1">
       <c r="A603">
         <v>2530</v>
       </c>
@@ -22088,7 +22094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="17" thickBot="1">
+    <row r="604" spans="1:10" hidden="1">
       <c r="A604">
         <v>2531</v>
       </c>
@@ -22120,7 +22126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="17" thickBot="1">
+    <row r="605" spans="1:10" hidden="1">
       <c r="A605">
         <v>2532</v>
       </c>
@@ -22152,7 +22158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="17" thickBot="1">
+    <row r="606" spans="1:10" hidden="1">
       <c r="A606">
         <v>2533</v>
       </c>
@@ -22184,7 +22190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="17" thickBot="1">
+    <row r="607" spans="1:10" hidden="1">
       <c r="A607">
         <v>2534</v>
       </c>
@@ -22216,7 +22222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="17" thickBot="1">
+    <row r="608" spans="1:10" hidden="1">
       <c r="A608">
         <v>2535</v>
       </c>
@@ -22248,7 +22254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="17" thickBot="1">
+    <row r="609" spans="1:10" hidden="1">
       <c r="A609">
         <v>2536</v>
       </c>
@@ -22280,7 +22286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="17" thickBot="1">
+    <row r="610" spans="1:10" hidden="1">
       <c r="A610">
         <v>2537</v>
       </c>
@@ -22312,7 +22318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="17" thickBot="1">
+    <row r="611" spans="1:10" hidden="1">
       <c r="A611">
         <v>2538</v>
       </c>
@@ -22344,7 +22350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="17" thickBot="1">
+    <row r="612" spans="1:10" hidden="1">
       <c r="A612">
         <v>2539</v>
       </c>
@@ -22376,7 +22382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="17" thickBot="1">
+    <row r="613" spans="1:10" hidden="1">
       <c r="A613">
         <v>2540</v>
       </c>
@@ -22408,7 +22414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="17" thickBot="1">
+    <row r="614" spans="1:10" hidden="1">
       <c r="A614">
         <v>2541</v>
       </c>
@@ -22440,7 +22446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="17" thickBot="1">
+    <row r="615" spans="1:10" hidden="1">
       <c r="A615">
         <v>2542</v>
       </c>
@@ -22472,7 +22478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="17" thickBot="1">
+    <row r="616" spans="1:10" hidden="1">
       <c r="A616">
         <v>2543</v>
       </c>
@@ -22504,7 +22510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="17" thickBot="1">
+    <row r="617" spans="1:10" hidden="1">
       <c r="A617">
         <v>2544</v>
       </c>
@@ -22536,7 +22542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="17" thickBot="1">
+    <row r="618" spans="1:10" hidden="1">
       <c r="A618">
         <v>2545</v>
       </c>
@@ -22568,7 +22574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="17" thickBot="1">
+    <row r="619" spans="1:10" hidden="1">
       <c r="A619">
         <v>2546</v>
       </c>
@@ -22600,7 +22606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="17" thickBot="1">
+    <row r="620" spans="1:10" hidden="1">
       <c r="A620">
         <v>2547</v>
       </c>
@@ -22632,7 +22638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="17" thickBot="1">
+    <row r="621" spans="1:10" hidden="1">
       <c r="A621">
         <v>2548</v>
       </c>
@@ -22664,7 +22670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="17" thickBot="1">
+    <row r="622" spans="1:10" hidden="1">
       <c r="A622">
         <v>2549</v>
       </c>
@@ -22696,7 +22702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="17" thickBot="1">
+    <row r="623" spans="1:10" hidden="1">
       <c r="A623">
         <v>2550</v>
       </c>
@@ -22728,7 +22734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="17" thickBot="1">
+    <row r="624" spans="1:10" hidden="1">
       <c r="A624">
         <v>2551</v>
       </c>
@@ -22760,7 +22766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="17" thickBot="1">
+    <row r="625" spans="1:10" hidden="1">
       <c r="A625">
         <v>2552</v>
       </c>
@@ -22792,7 +22798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="17" thickBot="1">
+    <row r="626" spans="1:10" hidden="1">
       <c r="A626">
         <v>2553</v>
       </c>
@@ -22824,7 +22830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="17" thickBot="1">
+    <row r="627" spans="1:10" hidden="1">
       <c r="A627">
         <v>2554</v>
       </c>
@@ -22856,7 +22862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="17" thickBot="1">
+    <row r="628" spans="1:10" hidden="1">
       <c r="A628">
         <v>2555</v>
       </c>
@@ -22888,7 +22894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="17" thickBot="1">
+    <row r="629" spans="1:10" hidden="1">
       <c r="A629">
         <v>2556</v>
       </c>
@@ -22920,7 +22926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="17" thickBot="1">
+    <row r="630" spans="1:10" hidden="1">
       <c r="A630">
         <v>2557</v>
       </c>
@@ -22952,7 +22958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="17" thickBot="1">
+    <row r="631" spans="1:10" hidden="1">
       <c r="A631">
         <v>2558</v>
       </c>
@@ -22984,7 +22990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="17" thickBot="1">
+    <row r="632" spans="1:10" hidden="1">
       <c r="A632">
         <v>2559</v>
       </c>
@@ -23016,7 +23022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="17" thickBot="1">
+    <row r="633" spans="1:10" hidden="1">
       <c r="A633">
         <v>2560</v>
       </c>
@@ -23048,7 +23054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="17" thickBot="1">
+    <row r="634" spans="1:10" hidden="1">
       <c r="A634">
         <v>2561</v>
       </c>
@@ -23080,7 +23086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="17" thickBot="1">
+    <row r="635" spans="1:10" hidden="1">
       <c r="A635">
         <v>2562</v>
       </c>
@@ -23112,7 +23118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="17" thickBot="1">
+    <row r="636" spans="1:10" hidden="1">
       <c r="A636">
         <v>2563</v>
       </c>
@@ -23144,7 +23150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="17" thickBot="1">
+    <row r="637" spans="1:10" hidden="1">
       <c r="A637">
         <v>2564</v>
       </c>
@@ -23176,7 +23182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="17" thickBot="1">
+    <row r="638" spans="1:10" hidden="1">
       <c r="A638">
         <v>2565</v>
       </c>
@@ -23208,7 +23214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="17" thickBot="1">
+    <row r="639" spans="1:10" hidden="1">
       <c r="A639">
         <v>2566</v>
       </c>
@@ -23240,7 +23246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="17" thickBot="1">
+    <row r="640" spans="1:10" hidden="1">
       <c r="A640">
         <v>2567</v>
       </c>
@@ -23272,7 +23278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="17" thickBot="1">
+    <row r="641" spans="1:10" hidden="1">
       <c r="A641">
         <v>2568</v>
       </c>
@@ -23304,7 +23310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="17" thickBot="1">
+    <row r="642" spans="1:10" hidden="1">
       <c r="A642">
         <v>2569</v>
       </c>
@@ -23336,7 +23342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="17" thickBot="1">
+    <row r="643" spans="1:10" hidden="1">
       <c r="A643">
         <v>2570</v>
       </c>
@@ -23368,7 +23374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="17" thickBot="1">
+    <row r="644" spans="1:10" hidden="1">
       <c r="A644">
         <v>2571</v>
       </c>
@@ -23400,7 +23406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="17" thickBot="1">
+    <row r="645" spans="1:10" hidden="1">
       <c r="A645">
         <v>2572</v>
       </c>
@@ -23432,7 +23438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="17" thickBot="1">
+    <row r="646" spans="1:10" hidden="1">
       <c r="A646">
         <v>2573</v>
       </c>
@@ -23464,7 +23470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="17" thickBot="1">
+    <row r="647" spans="1:10" hidden="1">
       <c r="A647">
         <v>2574</v>
       </c>
@@ -23496,7 +23502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="17" thickBot="1">
+    <row r="648" spans="1:10" hidden="1">
       <c r="A648">
         <v>2575</v>
       </c>
@@ -23528,7 +23534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="17" thickBot="1">
+    <row r="649" spans="1:10" hidden="1">
       <c r="A649">
         <v>2576</v>
       </c>
@@ -23560,7 +23566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="17" thickBot="1">
+    <row r="650" spans="1:10" hidden="1">
       <c r="A650">
         <v>2577</v>
       </c>
@@ -23592,7 +23598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="17" thickBot="1">
+    <row r="651" spans="1:10" hidden="1">
       <c r="A651">
         <v>2578</v>
       </c>
@@ -23624,7 +23630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="17" thickBot="1">
+    <row r="652" spans="1:10" hidden="1">
       <c r="A652">
         <v>2579</v>
       </c>
@@ -23656,7 +23662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="17" thickBot="1">
+    <row r="653" spans="1:10" hidden="1">
       <c r="A653">
         <v>2580</v>
       </c>
@@ -23688,7 +23694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="17" thickBot="1">
+    <row r="654" spans="1:10" hidden="1">
       <c r="A654">
         <v>2581</v>
       </c>
@@ -23720,7 +23726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="17" thickBot="1">
+    <row r="655" spans="1:10" hidden="1">
       <c r="A655">
         <v>2582</v>
       </c>
@@ -23752,7 +23758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="17" thickBot="1">
+    <row r="656" spans="1:10" hidden="1">
       <c r="A656">
         <v>2583</v>
       </c>
@@ -23784,7 +23790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="17" thickBot="1">
+    <row r="657" spans="1:10" hidden="1">
       <c r="A657">
         <v>2584</v>
       </c>
@@ -23816,7 +23822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="17" thickBot="1">
+    <row r="658" spans="1:10" hidden="1">
       <c r="A658">
         <v>2585</v>
       </c>
@@ -23848,7 +23854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="17" thickBot="1">
+    <row r="659" spans="1:10" hidden="1">
       <c r="A659">
         <v>2586</v>
       </c>
@@ -23880,7 +23886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="17" thickBot="1">
+    <row r="660" spans="1:10" hidden="1">
       <c r="A660">
         <v>2587</v>
       </c>
@@ -23912,7 +23918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="17" thickBot="1">
+    <row r="661" spans="1:10" hidden="1">
       <c r="A661">
         <v>2588</v>
       </c>
@@ -23944,7 +23950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="17" thickBot="1">
+    <row r="662" spans="1:10" hidden="1">
       <c r="A662">
         <v>2589</v>
       </c>
@@ -23976,7 +23982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="17" thickBot="1">
+    <row r="663" spans="1:10" hidden="1">
       <c r="A663">
         <v>2590</v>
       </c>
@@ -24008,7 +24014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="17" thickBot="1">
+    <row r="664" spans="1:10" hidden="1">
       <c r="A664">
         <v>2591</v>
       </c>
@@ -24040,7 +24046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="17" thickBot="1">
+    <row r="665" spans="1:10" hidden="1">
       <c r="A665">
         <v>2592</v>
       </c>
@@ -24072,7 +24078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="17" thickBot="1">
+    <row r="666" spans="1:10" hidden="1">
       <c r="A666">
         <v>2593</v>
       </c>
@@ -24104,7 +24110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="17" thickBot="1">
+    <row r="667" spans="1:10" hidden="1">
       <c r="A667">
         <v>2594</v>
       </c>
@@ -24136,7 +24142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="17" thickBot="1">
+    <row r="668" spans="1:10" hidden="1">
       <c r="A668">
         <v>2595</v>
       </c>
@@ -24168,7 +24174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="17" thickBot="1">
+    <row r="669" spans="1:10" hidden="1">
       <c r="A669">
         <v>2596</v>
       </c>
@@ -24200,7 +24206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="17" thickBot="1">
+    <row r="670" spans="1:10" hidden="1">
       <c r="A670">
         <v>2597</v>
       </c>
@@ -24232,7 +24238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="17" thickBot="1">
+    <row r="671" spans="1:10" hidden="1">
       <c r="A671">
         <v>2598</v>
       </c>
@@ -24264,7 +24270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="17" thickBot="1">
+    <row r="672" spans="1:10" hidden="1">
       <c r="A672">
         <v>2599</v>
       </c>
@@ -24296,7 +24302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:10">
+    <row r="673" spans="1:10" hidden="1">
       <c r="A673">
         <v>2600</v>
       </c>
